--- a/imagens camila/Pasta1.xlsx
+++ b/imagens camila/Pasta1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Desktop\imagens camila\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\inicial\php\camila\imagens camila\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tradutor Revolution</t>
   </si>
@@ -32,30 +32,15 @@
     <t>ferramenta</t>
   </si>
   <si>
-    <t>perço</t>
-  </si>
-  <si>
     <t>wpMultilingo</t>
   </si>
   <si>
-    <t>$ 17</t>
-  </si>
-  <si>
     <t>Polylang</t>
   </si>
   <si>
-    <t>$ 20</t>
-  </si>
-  <si>
     <t> WPML</t>
   </si>
   <si>
-    <t>$ 29</t>
-  </si>
-  <si>
-    <t>$ 0</t>
-  </si>
-  <si>
     <t>QTranslate X</t>
   </si>
   <si>
@@ -65,9 +50,6 @@
     <t>WooTabs</t>
   </si>
   <si>
-    <t>$ 6</t>
-  </si>
-  <si>
     <t>Transposh</t>
   </si>
   <si>
@@ -83,19 +65,31 @@
     <t>NIS Translator</t>
   </si>
   <si>
-    <t>$13</t>
-  </si>
-  <si>
     <t>Easy Translation Manager for WordPress</t>
   </si>
   <si>
-    <t>$20</t>
+    <t>link</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>https://codecanyon.net/item/ajax-translator-revolution-wordpress-plugin/1108823?ref=voirplusgrand</t>
+  </si>
+  <si>
+    <t>https://codecanyon.net/item/wpmultilingo-automatic-website-translator-for-wordpress/9872234?ref=voirplusgrand</t>
+  </si>
+  <si>
+    <t>https://pt.blogpascher.com/encaixes-wordpress/10-plugins-para-wordpress-traduzir-your-site-ou-blog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,10 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,127 +445,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBAB380-0279-4D43-A4F8-9CAB29EA2721}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="107.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
